--- a/해커톤/최종규격/오늘의하늘_최종규격.xlsx
+++ b/해커톤/최종규격/오늘의하늘_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC4329-AF60-43E8-9419-4CBBE6B61E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88E568-A007-40D1-9B0C-3C625F2639CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,264 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>마카오데이트 vlog💗 스위트룸 호캉스 갔다왔어요!! 이렇게 화려한 도시가 있었다니🙊</t>
-  </si>
-  <si>
-    <t>2층 전원주택 짓는비용 총 얼마들었을까?! 랜선집들이❤️ +Q&amp;A</t>
-  </si>
-  <si>
-    <t>다꾸선생 로즈하와 처음으로 다이어리 꾸며봤어용💗 꽁냥꽁냥 하자매😆</t>
-  </si>
-  <si>
-    <t>호주로 같이 떠나요❤️짐싸기부터 눈물의..비지니스석리뷰 +호주여행브이로그💗</t>
-  </si>
-  <si>
-    <t>연말의 주인공은 나야나💗 지속력 꿀팁가득 블링블링 메이크업✨</t>
-  </si>
-  <si>
-    <t>중요한날 집중관리방법 다알랴드림💗 붓기빼는방법/시술추천!!</t>
-  </si>
-  <si>
-    <t>다~ 모아버리는!!! 크리스마스 속옷 언박싱🎄🎄+이벤트😆❤️</t>
-  </si>
-  <si>
-    <t>아빠 생일파티❤️ 쏘스윗 아빠랑 함께하는 가을 시골일상 vlog💚</t>
-  </si>
-  <si>
-    <t>제주도 먹방 뿌시기!!!!! 남자친구랑 콘서트도 가고 카페투어도 갔다왔어요🧡 제주하늘vlog🍊</t>
-  </si>
-  <si>
-    <t>요트위에서 로멘틱 불꽃놀이 데이트! 그리고 부산 맛집투어 vlog❤️</t>
-  </si>
-  <si>
-    <t>열심히 데이트하면서 일하는 하사장❤️ 헤로하 홈파티&amp;다이어트😭</t>
-  </si>
-  <si>
-    <t>이 가성비 뭔가요..?100만원으로 왕창 쇼핑했어요❤️ +쇼핑지원금 이벤트💋</t>
-  </si>
-  <si>
-    <t>아이폰11Pro vs 10 카메라 꼼꼼리뷰!!📷 셀카비교... 그리고 대실망😭</t>
-  </si>
-  <si>
-    <t>대박쇼핑했어요!!!! 가을신상 명품하울🙈 에르메스,샤넬,디올,로에베</t>
-  </si>
-  <si>
-    <t>셀기꾼 하늘이의 셀카꿀팁 대방출❤️ 어플추천/몸매보정/손토샵비법!</t>
-  </si>
-  <si>
-    <t>이렇게 많이 왔다규?? 브랜드 선물 언박싱💗 가을신상 같이뜯어요!! +나눔이벤트✨</t>
-  </si>
-  <si>
-    <t>요청많았던❤️ 꿀팁 대방출! 매끈한 피부만들기! 승모근보톡스?!</t>
-  </si>
-  <si>
-    <t>베트남에서🇻🇳 야외먹방! 통통한 타이거새우, 칠리크랩, 쌀국수 먹었어요!!</t>
-  </si>
-  <si>
-    <t>하사장vlog❤ 출근해서 농땡이부리고 친구들이랑 맥주먹고 운동도 하고 바쁜 브이로그💦</t>
-  </si>
-  <si>
-    <t>끝이없는.. 배추심기😱🌱 청국장에 호박잎쌈 먹방!!그리고 강아지들🐶 하늘포레스트 +아옳이💚</t>
-  </si>
-  <si>
-    <t>가을맞이! 백화점쇼핑하울🍂 새학기 추천 데일리룩! +이벤트❤️</t>
-  </si>
-  <si>
-    <t>가을 쉽고 청순한 데일리메이크업 GRWM🍂</t>
-  </si>
-  <si>
-    <t>쇼핑몰 7년차! 속옷,코스매틱브랜드 27살 하사장 Q&amp;A❤️ 연봉? 매출? 직원관리? 궁굼한거 말해드림!</t>
-  </si>
-  <si>
-    <t>블.링.블.링.✨ 아이돌메이크업하고 무대 올랐어요!!❤️ GRWM</t>
-  </si>
-  <si>
-    <t>부산!! vlog✨다이아페스티벌/아옳이부부/헤로하 운동회/부산먹방/팬 선물 언박싱🐻</t>
-  </si>
-  <si>
-    <t>최애 고렴이✨ 원피스들 소개할게요!! 너무아껴서 아직 못입은 원피스 8벌❤️</t>
-  </si>
-  <si>
-    <t>핸드백 모두 소개해요❤️문의폭주🔥2탄! 미니백/명품가방/캐쥬얼가방👛</t>
-  </si>
-  <si>
-    <t>완벽방수💦 워터프루프 메이크업 GRWM❤️ +저렴이/고렴이 파데6종 방수테스트!!</t>
-  </si>
-  <si>
-    <t>인싸핫플!! 워터밤 페스티벌 갔다왔어요💦🤣 댄싱머신하늘🔥🔥 with 로즈하, 슈슈💗</t>
-  </si>
-  <si>
-    <t>하리보80개 먹기 도져언!!🐻 스피드Q&amp;A/라이브하이라이트❤️하이텐션주의🔥🙈</t>
-  </si>
-  <si>
-    <t>하사장❤️꿀잼일상vlog 회사생활/마라샹궈&amp;떡볶이먹방/택배뜯기!! 또 뭘샀을까용??</t>
-  </si>
-  <si>
-    <t>속초먹방투어 갔다왔어요 ㅋㅋ 꿀잼주의💗 먹방+언니들이랑 중고차 사기썰.. GRWM</t>
-  </si>
-  <si>
-    <t>여름맞이 룩북+vlog🌴 데이트룩/바캉스룩/오피스룩💗</t>
-  </si>
-  <si>
-    <t>일반인들이 리뷰한 시원시원 리얼 속옷 후기❤️&amp;늘웨어 촬영현장 브이로그🤭</t>
-  </si>
-  <si>
-    <t>Eng)하늘이 🌹로즈하 만들기 GRWM✨ 그리스에서 꿀잼 수다 대잔치🇬🇷</t>
-  </si>
-  <si>
-    <t>Eng)그리스vlog🇬🇷🦋 헤로하랑 산토리니, 아테네, 크레타로 여행을 떠나보아요😉 💥꺄르륵주의</t>
-  </si>
-  <si>
-    <t>Eng) 그리스갈 준비 같이해요! 그리스코디🇬🇷/가기전 피부 진정관리💚</t>
-  </si>
-  <si>
-    <t>Eng) 하늘포레스트🌱 집이 이만큼 지어졌어요! 장군이랑 하우스투어/목살바베큐💚</t>
-  </si>
-  <si>
-    <t>발리Vlog🌴 남친공개..🤭/지속력갑 휴양지 메이크업GRWM/호캉스브이로그☀️</t>
-  </si>
-  <si>
-    <t>Eng)호주🇳🇿vlog +소근커플&amp;씬님/명품쇼핑하울🥰/코알라🐨캥거루/먹방</t>
-  </si>
-  <si>
-    <t>Eng)하사장vlog🍑 피치씨 화보 촬영현장 / 신상 이지립스틱리뷰💗</t>
-  </si>
-  <si>
-    <t>Eng) 하사장이 쏜다❤️ 직원들 아침챙겨주기😍 +하늘이의 찾아가는 이벤트!💗</t>
-  </si>
-  <si>
-    <t>제가 전생체험을 하고왔습니다.. 제 죽음을 봤어요😭 소름</t>
-  </si>
-  <si>
-    <t>Eng) 하늘포레스트🌱 아빠랑 집 공사하기/텃밭비빔밥/까대기.....?? +이벤트(with.아크웰)</t>
-  </si>
-  <si>
-    <t>Eng)피치씨🍑브랜드매니저와 함께하는 겟레디윗미💗 피치씨 신상 쿠션&amp;베이스 Q&amp;A</t>
-  </si>
-  <si>
-    <t>Eng) 한달 다이어트 성공❤️ 현실 다이어트vlog2 +비키니화보찍다!</t>
-  </si>
-  <si>
-    <t>Eng) 하늘포레스트🌱 집짓기/아빠랑 강아지 목욕시키기/바베큐파티/본집일상❤️</t>
-  </si>
-  <si>
-    <t>Eng) 2박3일 일본vlog✈️ 돈키호테쇼핑/먹방/일본쇼핑하울</t>
-  </si>
-  <si>
-    <t>Jpn) 일본에서하는! 청순투명 메이크업💙+편의점 미니먹방👍🏻</t>
-  </si>
-  <si>
-    <t>라네즈 행사가는날💙 하리보만남🐻🐻 +대박이벤트👏🏻 with LANEIGE</t>
-  </si>
-  <si>
-    <t>자체제작 브랜드 💚늘웨어💜 봄맞이 신상컬러로 찾아왔어요💞</t>
-  </si>
-  <si>
-    <t>Eng) 봄맞이💗 인터넷옷쇼핑! 악세사리도 샀어요! 저렴이 쇼핑하울🍒</t>
-  </si>
-  <si>
-    <t>열심히 일한자여 떠나라✈️ 2박3일 제주도 호캉스❤️ 헤로하 in신라호텔</t>
-  </si>
-  <si>
-    <t>하늘 포레스트🌱 리틀농부/아빠랑집짓기/강아지네마리vlog🐶</t>
-  </si>
-  <si>
-    <t>일주일동안 -2kg!!!! 현실적인 다이어트+일상 vlog</t>
-  </si>
-  <si>
-    <t>제주도 힐링여행vlog🌱 같이 잘준비해요! +어퓨행사 참여했어요💚</t>
-  </si>
-  <si>
-    <t>웜톤 쿨톤 모두 잘어울리는💜라벤더메이크업💜</t>
-  </si>
-  <si>
-    <t>하사장의 일주일 데일리룩💃🏻 +100만원 이벤트🤭 (feat.SSF샵)</t>
-  </si>
-  <si>
-    <t>신상 화장품 같이 풀어봐요🌸🌸 +옷쇼핑하울❤️</t>
-  </si>
-  <si>
-    <t>하사장의 출근할때 퀵! 깔끔한 5분메이크업 GRWM 같이 출근해요😘 +이벤트🐻</t>
-  </si>
-  <si>
-    <t>70만기념!! 구독자 불러서 홈파티🥳 요리해주기👍🏻/리얼Q&amp;A/미니뷰티클레스/선물증정식!!</t>
-  </si>
-  <si>
-    <t>스페인 브이로그💋💃🏻 아울렛쇼핑하울/에르메스쇼핑✨/먹방&amp;즐기기!</t>
-  </si>
-  <si>
-    <t>핑크 한가득 사랑스런 벚꽃 메이크업🌸 데이트할때 딱이에요✨</t>
-  </si>
-  <si>
-    <t>같이 스페인 짐싸요❤️💃🏻 사진잘나오는옷 / 여행필수템 / 파우치챙기기</t>
-  </si>
-  <si>
-    <t>올로드샵! 초간단 자연스러운 방과후 학생 메이크업🌱</t>
-  </si>
-  <si>
-    <t>[하사장의vlog] 헤로하❤️/강연/출근/맛집탐방/블랙라벨 촬영/집밥해먹기</t>
-  </si>
-  <si>
-    <t>모델 하늘이의☁️ 인생렌즈추천!! 렌즈인생 10년차! 질문이 제일 많았어요!</t>
-  </si>
-  <si>
-    <t>글로우픽 1위템으로만한 블링블링✨ 메이크업!❤️ +이벤트!</t>
-  </si>
-  <si>
-    <t>70만 기념 이벤트❤️ 하늘이의 집들이에 초대합니다!!!🥳🥳</t>
-  </si>
-  <si>
-    <t>하늘이 추천템❤️ 기초케어 루틴, 여드름피부/제모관리/클렌징/제품추천!</t>
-  </si>
-  <si>
-    <t>수줍은 감귤상 메이크업🍊 제주도에서 같이준비해요🌴+제주vlog</t>
-  </si>
-  <si>
-    <t>중국 제품으로 같이 메이크업 해요! GRWM🇨🇳 레드립 고양이상 메이크업💋</t>
-  </si>
-  <si>
-    <t>갑자기 베이징 vlog! 🇨🇳 영상에서 술냄새주의 / 계속먹음 / 그리고..🔞🔞</t>
-  </si>
-  <si>
-    <t>[Eng] TBJ 촬영현장 브이로그😆 (feat 라이관린 &amp; 유선호)</t>
-  </si>
-  <si>
-    <t>코스메틱브랜드 대표의 화장품 제작부터 런칭까지🍑 PeachC / 촬영현장브이로그 / 신상아이섀도우팔렛트✨</t>
-  </si>
-  <si>
-    <t>하늘이의 연기도전기!!!? 진지함 주의🙌🏻ㅋㅋ</t>
-  </si>
-  <si>
-    <t>아이돌st 반묶음, 고데기 같이해요! GRWM +잔머리 고데기꿀팁, 헤어제품 추천!</t>
-  </si>
-  <si>
-    <t>가지고있는 신발 모두소개할게요❤️ 명품신발 / 구두추천 / 운동화추천!</t>
-  </si>
-  <si>
-    <t>[Eng] 도쿄vlog❤️샤넬쇼핑하울/후지큐 놀이공원/기네스북 롤러코스터/귀신의집 with SUMI l 오늘의하늘 haneul</t>
-  </si>
-  <si>
-    <t>[Eng] 명품 과즙상🍅🍒🍊 립스와치 with  2019 YSL beauty💋I 오늘의 하늘 Ha Neul</t>
-  </si>
-  <si>
-    <t>[Eng] 청하와 함께하는 청하 ⏰벌써12시 커버메이크업! 댄스도 배워봤어요! Chungha cover makeup with Chungha l 오늘의하늘 Ha Neul</t>
-  </si>
-  <si>
-    <t>촬영현장 같이가요오❤️ 바쁘고 바쁜 하사장일상🔥🔥🔥</t>
-  </si>
-  <si>
-    <t>조용한 시골집에🐶 댕댕이4마리 vlog</t>
-  </si>
-  <si>
-    <t>장성규 만났맨😆ㅋㅋㅋ 하사장의 kbs 도오전기/데이뚜하는날/일하는날 vlog</t>
-  </si>
-  <si>
-    <t>치명 하늘 vs 복숭아 홀리!! ㅋㅋㅋㅋ 대환장 메이크업바꾸기🔥</t>
-  </si>
-  <si>
-    <t>제주도에 집구했어요! 제주도 일년살기 시작💚+남자친규☀️</t>
-  </si>
-  <si>
     <t>17:04</t>
   </si>
   <si>
@@ -551,6 +293,14 @@
   </si>
   <si>
     <t>16:11</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -589,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -612,13 +362,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -959,15 +723,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,16 +756,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2">
         <v>238991</v>
@@ -1016,18 +783,21 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
       </c>
       <c r="D3">
         <v>700252</v>
@@ -1042,18 +812,21 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
       </c>
       <c r="D4">
         <v>304889</v>
@@ -1068,18 +841,21 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
       </c>
       <c r="D5">
         <v>396007</v>
@@ -1094,18 +870,21 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
       </c>
       <c r="D6">
         <v>235498</v>
@@ -1120,18 +899,21 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
       </c>
       <c r="D7">
         <v>352972</v>
@@ -1146,18 +928,21 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
       </c>
       <c r="D8">
         <v>206024</v>
@@ -1172,18 +957,21 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
       </c>
       <c r="D9">
         <v>298431</v>
@@ -1198,18 +986,21 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
         <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
       </c>
       <c r="D10">
         <v>267451</v>
@@ -1224,18 +1015,21 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
       </c>
       <c r="D11">
         <v>350070</v>
@@ -1250,18 +1044,21 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
       </c>
       <c r="D12">
         <v>426682</v>
@@ -1276,18 +1073,21 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
         <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
       </c>
       <c r="D13">
         <v>254089</v>
@@ -1302,18 +1102,21 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
       </c>
       <c r="D14">
         <v>674186</v>
@@ -1328,18 +1131,21 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
       </c>
       <c r="D15">
         <v>579472</v>
@@ -1354,18 +1160,21 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
       </c>
       <c r="D16">
         <v>473594</v>
@@ -1380,18 +1189,21 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
         <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
       </c>
       <c r="D17">
         <v>269990</v>
@@ -1406,18 +1218,21 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
       </c>
       <c r="D18">
         <v>348964</v>
@@ -1432,18 +1247,21 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
         <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
       </c>
       <c r="D19">
         <v>141877</v>
@@ -1458,18 +1276,21 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
       </c>
       <c r="D20">
         <v>177392</v>
@@ -1484,18 +1305,21 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
       </c>
       <c r="D21">
         <v>279066</v>
@@ -1510,18 +1334,21 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
       </c>
       <c r="D22">
         <v>214066</v>
@@ -1536,18 +1363,21 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
       </c>
       <c r="D23">
         <v>210771</v>
@@ -1562,18 +1392,21 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
       </c>
       <c r="D24">
         <v>475636</v>
@@ -1588,18 +1421,21 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
       </c>
       <c r="D25">
         <v>217900</v>
@@ -1614,18 +1450,21 @@
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
       </c>
       <c r="D26">
         <v>240278</v>
@@ -1640,18 +1479,21 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
       </c>
       <c r="D27">
         <v>406580</v>
@@ -1666,18 +1508,21 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
         <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
       </c>
       <c r="D28">
         <v>667579</v>
@@ -1692,18 +1537,21 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
+      <c r="B29">
         <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
       </c>
       <c r="D29">
         <v>289367</v>
@@ -1718,18 +1566,21 @@
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
       </c>
       <c r="D30">
         <v>370285</v>
@@ -1744,18 +1595,21 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
       </c>
       <c r="D31">
         <v>227490</v>
@@ -1770,18 +1624,21 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
       </c>
       <c r="D32">
         <v>491562</v>
@@ -1796,18 +1653,21 @@
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
+      <c r="B33">
         <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
       </c>
       <c r="D33">
         <v>449792</v>
@@ -1822,18 +1682,21 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
       </c>
       <c r="D34">
         <v>208088</v>
@@ -1848,18 +1711,21 @@
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
       </c>
       <c r="D35">
         <v>227998</v>
@@ -1874,18 +1740,21 @@
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
       </c>
       <c r="D36">
         <v>780751</v>
@@ -1900,18 +1769,21 @@
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
+      <c r="B37">
         <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
       </c>
       <c r="D37">
         <v>364694</v>
@@ -1926,18 +1798,21 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.5</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
         <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
       </c>
       <c r="D38">
         <v>375073</v>
@@ -1952,18 +1827,21 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
       </c>
       <c r="D39">
         <v>382318</v>
@@ -1978,18 +1856,21 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
       </c>
       <c r="D40">
         <v>1014811</v>
@@ -2004,18 +1885,21 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
+      <c r="B41">
         <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
       </c>
       <c r="D41">
         <v>341093</v>
@@ -2030,18 +1914,21 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I41">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
       </c>
       <c r="D42">
         <v>162886</v>
@@ -2056,18 +1943,21 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I42">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
       </c>
       <c r="D43">
         <v>202531</v>
@@ -2082,18 +1972,21 @@
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I43">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.5</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
       </c>
       <c r="D44">
         <v>571030</v>
@@ -2108,18 +2001,21 @@
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
       </c>
       <c r="D45">
         <v>149928</v>
@@ -2134,18 +2030,21 @@
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I45">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
       </c>
       <c r="D46">
         <v>209781</v>
@@ -2160,18 +2059,21 @@
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
       </c>
       <c r="D47">
         <v>731550</v>
@@ -2186,18 +2088,21 @@
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I47">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
       </c>
       <c r="D48">
         <v>253296</v>
@@ -2212,18 +2117,21 @@
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
+      <c r="B49">
         <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
       </c>
       <c r="D49">
         <v>266673</v>
@@ -2238,18 +2146,21 @@
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I49">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
+      <c r="B50">
         <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
       </c>
       <c r="D50">
         <v>528353</v>
@@ -2264,18 +2175,21 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I50">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
       </c>
       <c r="D51">
         <v>106833</v>
@@ -2290,18 +2204,21 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I51">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
       </c>
       <c r="D52">
         <v>211338</v>
@@ -2316,18 +2233,21 @@
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I52">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
       </c>
       <c r="D53">
         <v>384576</v>
@@ -2342,18 +2262,21 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I53">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.5</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
+      <c r="B54">
         <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
       </c>
       <c r="D54">
         <v>654544</v>
@@ -2368,18 +2291,21 @@
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3.5</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
       </c>
       <c r="D55">
         <v>230886</v>
@@ -2394,18 +2320,21 @@
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I55">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3.5</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
       </c>
       <c r="D56">
         <v>824049</v>
@@ -2420,18 +2349,21 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I56">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.5</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
+      <c r="B57">
         <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
       </c>
       <c r="D57">
         <v>162267</v>
@@ -2446,18 +2378,21 @@
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I57">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
       </c>
       <c r="D58">
         <v>95219</v>
@@ -2472,18 +2407,21 @@
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I58">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
       </c>
       <c r="D59">
         <v>262901</v>
@@ -2498,18 +2436,21 @@
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I59">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
       </c>
       <c r="D60">
         <v>231171</v>
@@ -2524,18 +2465,21 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I60">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.5</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
       </c>
       <c r="D61">
         <v>216343</v>
@@ -2550,18 +2494,21 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I61">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3.5</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
       </c>
       <c r="D62">
         <v>199706</v>
@@ -2576,18 +2523,21 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I62">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
+      <c r="B63">
         <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
       </c>
       <c r="D63">
         <v>624402</v>
@@ -2602,18 +2552,21 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I63">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.5</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
       </c>
       <c r="D64">
         <v>186528</v>
@@ -2628,18 +2581,21 @@
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.5</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
       </c>
       <c r="D65">
         <v>477684</v>
@@ -2654,18 +2610,21 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I65">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.5</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
       </c>
       <c r="D66">
         <v>219544</v>
@@ -2680,18 +2639,21 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I66">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.5</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
       </c>
       <c r="D67">
         <v>266406</v>
@@ -2706,18 +2668,21 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.5</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
       </c>
       <c r="D68">
         <v>483652</v>
@@ -2732,18 +2697,21 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
       </c>
       <c r="D69">
         <v>182079</v>
@@ -2758,18 +2726,21 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.5</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
       </c>
       <c r="D70">
         <v>65860</v>
@@ -2784,18 +2755,21 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I70">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.5</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
       </c>
       <c r="D71">
         <v>234423</v>
@@ -2810,18 +2784,21 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I71">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.5</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
       </c>
       <c r="D72">
         <v>204728</v>
@@ -2836,18 +2813,21 @@
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I72">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.5</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
       </c>
       <c r="D73">
         <v>106133</v>
@@ -2862,18 +2842,21 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.5</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
+      <c r="B74">
         <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
       </c>
       <c r="D74">
         <v>185401</v>
@@ -2888,18 +2871,21 @@
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.5</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
       </c>
       <c r="D75">
         <v>436501</v>
@@ -2914,18 +2900,21 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I75">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.5</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
       </c>
       <c r="D76">
         <v>216373</v>
@@ -2940,18 +2929,21 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I76">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.5</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
       </c>
       <c r="D77">
         <v>118310</v>
@@ -2966,18 +2958,21 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.5</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
       </c>
       <c r="D78">
         <v>265061</v>
@@ -2992,18 +2987,21 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I78">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.5</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
       </c>
       <c r="D79">
         <v>460117</v>
@@ -3018,18 +3016,21 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I79">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3.5</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80">
+      <c r="B80">
         <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
       </c>
       <c r="D80">
         <v>273916</v>
@@ -3044,18 +3045,21 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I80">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.5</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
       </c>
       <c r="D81">
         <v>144735</v>
@@ -3070,18 +3074,21 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I81">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
       </c>
       <c r="D82">
         <v>880135</v>
@@ -3096,18 +3103,21 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I82">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3.5</v>
       </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
       </c>
       <c r="D83">
         <v>221665</v>
@@ -3122,18 +3132,21 @@
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I83">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>91</v>
       </c>
       <c r="D84">
         <v>121048</v>
@@ -3148,18 +3161,21 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I84">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3.5</v>
       </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
       </c>
       <c r="D85">
         <v>307584</v>
@@ -3174,18 +3190,21 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I85">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3.5</v>
       </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
       </c>
       <c r="D86">
         <v>606603</v>
@@ -3200,18 +3219,21 @@
         <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="I86">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1.5</v>
       </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87">
+      <c r="B87">
         <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
       </c>
       <c r="D87">
         <v>569130</v>
@@ -3226,7 +3248,10 @@
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>176</v>
+        <v>90</v>
+      </c>
+      <c r="I87">
+        <v>880000</v>
       </c>
     </row>
   </sheetData>
